--- a/group property parameter table.xlsx
+++ b/group property parameter table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Imperial College London\School Work\Year 4\Advanced Process Optimisation\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{54E9388B-7918-4662-9941-0F89BA9963D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4F7AC3C-8B00-4655-8E03-2C217DAB60C7}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{54E9388B-7918-4662-9941-0F89BA9963D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66547817-72DD-4451-AE98-9530D0F57345}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A3056EDA-ED5C-45D8-90CA-FFBB2EDFAE2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A3056EDA-ED5C-45D8-90CA-FFBB2EDFAE2C}"/>
   </bookViews>
   <sheets>
     <sheet name="CAG needed" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="111">
   <si>
     <t>CH</t>
   </si>
@@ -1013,9 +1013,6 @@
   </si>
   <si>
     <t>CH---C</t>
-  </si>
-  <si>
-    <t>C---C</t>
   </si>
   <si>
     <t>type</t>
@@ -1050,7 +1047,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1286,20 +1283,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,9 +1333,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1664,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17F8A52-8600-4165-B276-756AD6606234}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1663,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1671,7 @@
         <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -1713,7 +1698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
@@ -1742,7 +1727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1761,110 @@
       <c r="K3" s="10">
         <v>-9.9231999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>33</v>
       </c>
@@ -1812,7 +1899,7 @@
         <v>-15.7033</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1934,7 @@
         <v>-29.514299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1882,7 +1969,7 @@
         <v>-45.787799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>103</v>
       </c>
@@ -1917,7 +2004,7 @@
         <v>-21.790800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>105</v>
       </c>
@@ -1952,7 +2039,7 @@
         <v>-24.8156</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>104</v>
       </c>
@@ -1987,7 +2074,7 @@
         <v>-26.063700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>106</v>
       </c>
@@ -2022,7 +2109,7 @@
         <v>-29.3703</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>107</v>
       </c>
@@ -2057,7 +2144,7 @@
         <v>-30.605699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>108</v>
       </c>
@@ -2092,7 +2179,7 @@
         <v>-25.1081</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
@@ -2127,7 +2214,7 @@
         <v>-13.1692</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2249,7 @@
         <v>-12.728300000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
@@ -2197,7 +2284,7 @@
         <v>-21.067</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>40</v>
       </c>
@@ -2374,42 +2461,42 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B21" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>3.8967000000000001</v>
+        <v>2.8525999999999998</v>
       </c>
       <c r="E21" s="2">
-        <v>14.6273</v>
+        <v>10.198600000000001</v>
       </c>
       <c r="F21" s="2">
-        <v>1.78E-2</v>
+        <v>1.41E-2</v>
       </c>
       <c r="G21" s="2">
-        <v>0.96299999999999997</v>
+        <v>1.133</v>
       </c>
       <c r="H21" s="2">
-        <v>20.041</v>
+        <v>12.909000000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>40.750100000000003</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>19.699000000000002</v>
       </c>
       <c r="K21" s="6">
-        <v>0</v>
+        <v>-5.4359999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B22" s="14">
         <v>1</v>
@@ -2418,33 +2505,33 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>2.8525999999999998</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>10.198600000000001</v>
+        <v>12.596500000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>1.41E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>1.133</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H22" s="2">
-        <v>12.909000000000001</v>
+        <v>22.709</v>
       </c>
       <c r="I22" s="2">
-        <v>40.750100000000003</v>
+        <v>66.842299999999994</v>
       </c>
       <c r="J22" s="2">
-        <v>19.699000000000002</v>
+        <v>102.45529999999999</v>
       </c>
       <c r="K22" s="6">
-        <v>-5.4359999999999999</v>
+        <v>-43.330599999999997</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="14">
         <v>1</v>
@@ -2453,33 +2540,33 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>3.6360000000000001</v>
+        <v>2.2536</v>
       </c>
       <c r="E23" s="2">
-        <v>12.596500000000001</v>
+        <v>6.4737</v>
       </c>
       <c r="F23" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="G23" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="H23" s="2">
-        <v>22.709</v>
+        <v>10.919</v>
       </c>
       <c r="I23" s="2">
-        <v>66.842299999999994</v>
+        <v>50.560400000000001</v>
       </c>
       <c r="J23" s="2">
-        <v>102.45529999999999</v>
+        <v>38.9681</v>
       </c>
       <c r="K23" s="6">
-        <v>-43.330599999999997</v>
+        <v>-4.7798999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="14">
         <v>2</v>
@@ -2488,103 +2575,103 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>3.3953000000000002</v>
+        <v>1.6249</v>
       </c>
       <c r="E24" s="2">
-        <v>13.8116</v>
+        <v>6.0723000000000003</v>
       </c>
       <c r="F24" s="2">
-        <v>2.18E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="G24" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="H24" s="2">
-        <v>17.759</v>
+        <v>7.4779999999999998</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>39.578400000000002</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>41.817700000000002</v>
       </c>
       <c r="K24" s="6">
-        <v>0</v>
+        <v>-11.0837</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B25" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="14">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>3.1459000000000001</v>
+        <v>1.1556999999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>11.605700000000001</v>
+        <v>5.0663</v>
       </c>
       <c r="F25" s="2">
-        <v>1.38E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="G25" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>5.7080000000000002</v>
       </c>
       <c r="I25" s="2">
-        <v>51.504800000000003</v>
+        <v>25.675000000000001</v>
       </c>
       <c r="J25" s="2">
-        <v>44.4133</v>
+        <v>24.728100000000001</v>
       </c>
       <c r="K25" s="6">
-        <v>-19.615500000000001</v>
+        <v>4.2419000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B26" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>2.2536</v>
+        <v>2.5983000000000001</v>
       </c>
       <c r="E26" s="2">
-        <v>6.4737</v>
+        <v>10.2075</v>
       </c>
       <c r="F26" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>0.442</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="H26" s="2">
-        <v>10.919</v>
+        <v>11.875999999999999</v>
       </c>
       <c r="I26" s="2">
-        <v>50.560400000000001</v>
+        <v>44.112200000000001</v>
       </c>
       <c r="J26" s="2">
-        <v>38.9681</v>
+        <v>77.215500000000006</v>
       </c>
       <c r="K26" s="6">
-        <v>-4.7798999999999996</v>
+        <v>-33.508600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" s="14">
         <v>2</v>
@@ -2593,33 +2680,33 @@
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>1.6249</v>
+        <v>3.1375999999999999</v>
       </c>
       <c r="E27" s="2">
-        <v>6.0723000000000003</v>
+        <v>9.8544</v>
       </c>
       <c r="F27" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="G27" s="2">
-        <v>0.218</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H27" s="2">
-        <v>7.4779999999999998</v>
+        <v>14.452</v>
       </c>
       <c r="I27" s="2">
-        <v>39.578400000000002</v>
+        <v>53.7012</v>
       </c>
       <c r="J27" s="2">
-        <v>41.817700000000002</v>
+        <v>71.794799999999995</v>
       </c>
       <c r="K27" s="6">
-        <v>-11.0837</v>
+        <v>-22.968499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B28" s="14">
         <v>3</v>
@@ -2628,1253 +2715,308 @@
         <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>1.1556999999999999</v>
+        <v>2.6126999999999998</v>
       </c>
       <c r="E28" s="2">
-        <v>5.0663</v>
+        <v>10.467700000000001</v>
       </c>
       <c r="F28" s="2">
-        <v>9.9000000000000008E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>0.50900000000000001</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="H28" s="2">
-        <v>5.7080000000000002</v>
+        <v>14.481</v>
       </c>
       <c r="I28" s="2">
-        <v>25.675000000000001</v>
+        <v>44.638800000000003</v>
       </c>
       <c r="J28" s="2">
-        <v>24.728100000000001</v>
+        <v>68.504099999999994</v>
       </c>
       <c r="K28" s="6">
-        <v>4.2419000000000002</v>
+        <v>-26.710599999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="14">
         <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>3.1656</v>
+        <v>2.1646999999999998</v>
       </c>
       <c r="E29" s="2">
-        <v>12.172599999999999</v>
+        <v>7.6924000000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>1.26E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H29" s="2">
-        <v>14.599</v>
+        <v>6.9470000000000001</v>
       </c>
       <c r="I29" s="2">
-        <v>57.686100000000003</v>
+        <v>41.406399999999998</v>
       </c>
       <c r="J29" s="2">
-        <v>64.076800000000006</v>
+        <v>85.099599999999995</v>
       </c>
       <c r="K29" s="6">
-        <v>-21.047999999999998</v>
+        <v>-35.631799999999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B30" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="14">
         <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>2.5983000000000001</v>
+        <v>1.2171000000000001</v>
       </c>
       <c r="E30" s="2">
-        <v>10.2075</v>
+        <v>5.5171999999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>1.0699999999999999E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="G30" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="H30" s="2">
-        <v>11.875999999999999</v>
+        <v>6.9180000000000001</v>
       </c>
       <c r="I30" s="2">
-        <v>44.112200000000001</v>
+        <v>30.156099999999999</v>
       </c>
       <c r="J30" s="2">
-        <v>77.215500000000006</v>
+        <v>81.681399999999996</v>
       </c>
       <c r="K30" s="6">
-        <v>-33.508600000000001</v>
+        <v>-36.144100000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B31" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="14">
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>3.1375999999999999</v>
+        <v>5.0525000000000002</v>
       </c>
       <c r="E31" s="2">
-        <v>9.8544</v>
+        <v>20.3781</v>
       </c>
       <c r="F31" s="2">
-        <v>1.26E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>0.55000000000000004</v>
+        <v>1.67</v>
       </c>
       <c r="H31" s="2">
-        <v>14.452</v>
+        <v>23.34</v>
       </c>
       <c r="I31" s="2">
-        <v>53.7012</v>
+        <v>58.283700000000003</v>
       </c>
       <c r="J31" s="2">
-        <v>71.794799999999995</v>
+        <v>49.638800000000003</v>
       </c>
       <c r="K31" s="6">
-        <v>-22.968499999999999</v>
+        <v>-15.629099999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B32" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="14">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>2.6126999999999998</v>
+        <v>5.8337000000000003</v>
       </c>
       <c r="E32" s="2">
-        <v>10.467700000000001</v>
+        <v>23.7593</v>
       </c>
       <c r="F32" s="2">
-        <v>1.04E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="G32" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H32" s="2">
-        <v>14.481</v>
+        <v>43.045999999999999</v>
       </c>
       <c r="I32" s="2">
-        <v>44.638800000000003</v>
+        <v>46.557699999999997</v>
       </c>
       <c r="J32" s="2">
-        <v>68.504099999999994</v>
+        <v>48.232199999999999</v>
       </c>
       <c r="K32" s="6">
-        <v>-26.710599999999999</v>
+        <v>-20.486799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B33" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="14">
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>1.5780000000000001</v>
+        <v>3.665</v>
       </c>
       <c r="E33" s="2">
-        <v>7.2121000000000004</v>
+        <v>17.3947</v>
       </c>
       <c r="F33" s="2">
-        <v>-5.0000000000000001E-4</v>
+        <v>2.8E-3</v>
       </c>
       <c r="G33" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>14.364000000000001</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>29.1815</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>-9.7845999999999993</v>
       </c>
       <c r="K33" s="6">
-        <v>0</v>
+        <v>3.4554</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B34" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="14">
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>2.1646999999999998</v>
+        <v>2.6495000000000002</v>
       </c>
       <c r="E34" s="2">
-        <v>7.6924000000000001</v>
+        <v>10.537100000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="G34" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="H34" s="2">
-        <v>6.9470000000000001</v>
+        <v>11.423</v>
       </c>
       <c r="I34" s="2">
-        <v>41.406399999999998</v>
+        <v>28.026</v>
       </c>
       <c r="J34" s="2">
-        <v>85.099599999999995</v>
+        <v>-7.1650999999999998</v>
       </c>
       <c r="K34" s="6">
-        <v>-35.631799999999998</v>
+        <v>2.4331999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B35" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>1.2171000000000001</v>
+        <v>2.3677999999999999</v>
       </c>
       <c r="E35" s="2">
-        <v>5.5171999999999999</v>
+        <v>7.5433000000000003</v>
       </c>
       <c r="F35" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G35" s="2">
-        <v>0.79300000000000004</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="H35" s="2">
-        <v>6.9180000000000001</v>
+        <v>7.7510000000000003</v>
       </c>
       <c r="I35" s="2">
-        <v>30.156099999999999</v>
+        <v>45.976799999999997</v>
       </c>
       <c r="J35" s="2">
-        <v>81.681399999999996</v>
+        <v>20.6417</v>
       </c>
       <c r="K35" s="6">
-        <v>-36.144100000000002</v>
+        <v>-8.3297000000000008</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B36" s="14">
         <v>2</v>
       </c>
       <c r="C36" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>5.4736000000000002</v>
+        <v>3.6762999999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>28.757000000000001</v>
+        <v>17.791599999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>0.438</v>
       </c>
       <c r="H36" s="2">
-        <v>28.452999999999999</v>
+        <v>17.117000000000001</v>
       </c>
       <c r="I36" s="2">
-        <v>47.131100000000004</v>
+        <v>45.031399999999998</v>
       </c>
       <c r="J36" s="2">
-        <v>51.332599999999999</v>
+        <v>55.1432</v>
       </c>
       <c r="K36" s="6">
-        <v>-25.0276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="14">
-        <v>1</v>
-      </c>
-      <c r="C37" s="14">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>6.28</v>
-      </c>
-      <c r="E37" s="2">
-        <v>29.152799999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>31.523</v>
-      </c>
-      <c r="I37" s="2">
-        <v>84.760199999999998</v>
-      </c>
-      <c r="J37" s="2">
-        <v>177.25129999999999</v>
-      </c>
-      <c r="K37" s="6">
-        <v>-72.321299999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="14">
-        <v>2</v>
-      </c>
-      <c r="C38" s="14">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>5.9234</v>
-      </c>
-      <c r="E38" s="2">
-        <v>27.946400000000001</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>31.004999999999999</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="14">
-        <v>1</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>5.0525000000000002</v>
-      </c>
-      <c r="E39" s="2">
-        <v>20.3781</v>
-      </c>
-      <c r="F39" s="2">
-        <v>3.61E-2</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="H39" s="2">
-        <v>23.34</v>
-      </c>
-      <c r="I39" s="2">
-        <v>58.283700000000003</v>
-      </c>
-      <c r="J39" s="2">
-        <v>49.638800000000003</v>
-      </c>
-      <c r="K39" s="6">
-        <v>-15.629099999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="14">
-        <v>1</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>5.8337000000000003</v>
-      </c>
-      <c r="E40" s="2">
-        <v>23.7593</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1.15E-2</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H40" s="2">
-        <v>43.045999999999999</v>
-      </c>
-      <c r="I40" s="2">
-        <v>46.557699999999997</v>
-      </c>
-      <c r="J40" s="2">
-        <v>48.232199999999999</v>
-      </c>
-      <c r="K40" s="6">
-        <v>-20.486799999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="14">
-        <v>1</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>5.7618999999999998</v>
-      </c>
-      <c r="E41" s="2">
-        <v>24.736899999999999</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>30.643999999999998</v>
-      </c>
-      <c r="I41" s="2">
-        <v>63.7851</v>
-      </c>
-      <c r="J41" s="2">
-        <v>83.474400000000003</v>
-      </c>
-      <c r="K41" s="6">
-        <v>-35.117100000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="14">
-        <v>2</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>5.0766999999999998</v>
-      </c>
-      <c r="E42" s="2">
-        <v>23.204999999999998</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>26.277000000000001</v>
-      </c>
-      <c r="I42" s="2">
-        <v>51.144199999999998</v>
-      </c>
-      <c r="J42" s="2">
-        <v>94.293400000000005</v>
-      </c>
-      <c r="K42" s="6">
-        <v>-45.2029</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="14">
-        <v>2</v>
-      </c>
-      <c r="C43" s="14">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2">
-        <v>6.0837000000000003</v>
-      </c>
-      <c r="E43" s="2">
-        <v>34.587000000000003</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="14">
-        <v>1</v>
-      </c>
-      <c r="C44" s="14">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3.2913999999999999</v>
-      </c>
-      <c r="E44" s="2">
-        <v>13.8058</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>14.930999999999999</v>
-      </c>
-      <c r="I44" s="2">
-        <v>58.244500000000002</v>
-      </c>
-      <c r="J44" s="2">
-        <v>46.995800000000003</v>
-      </c>
-      <c r="K44" s="6">
-        <v>-10.5106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="14">
-        <v>1</v>
-      </c>
-      <c r="C45" s="14">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3.665</v>
-      </c>
-      <c r="E45" s="2">
-        <v>17.3947</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H45" s="2">
-        <v>14.364000000000001</v>
-      </c>
-      <c r="I45" s="2">
-        <v>29.1815</v>
-      </c>
-      <c r="J45" s="2">
-        <v>-9.7845999999999993</v>
-      </c>
-      <c r="K45" s="6">
-        <v>3.4554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="14">
-        <v>1</v>
-      </c>
-      <c r="C46" s="14">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2.6495000000000002</v>
-      </c>
-      <c r="E46" s="2">
-        <v>10.537100000000001</v>
-      </c>
-      <c r="F46" s="2">
-        <v>-1.8E-3</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="H46" s="2">
-        <v>11.423</v>
-      </c>
-      <c r="I46" s="2">
-        <v>28.026</v>
-      </c>
-      <c r="J46" s="2">
-        <v>-7.1650999999999998</v>
-      </c>
-      <c r="K46" s="6">
-        <v>2.4331999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="14">
-        <v>1</v>
-      </c>
-      <c r="C47" s="14">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2.3677999999999999</v>
-      </c>
-      <c r="E47" s="2">
-        <v>7.5433000000000003</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="H47" s="2">
-        <v>7.7510000000000003</v>
-      </c>
-      <c r="I47" s="2">
-        <v>45.976799999999997</v>
-      </c>
-      <c r="J47" s="2">
-        <v>20.6417</v>
-      </c>
-      <c r="K47" s="6">
-        <v>-8.3297000000000008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="14">
-        <v>2</v>
-      </c>
-      <c r="C48" s="14">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2.5644999999999998</v>
-      </c>
-      <c r="E48" s="2">
-        <v>11.450100000000001</v>
-      </c>
-      <c r="F48" s="2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>11.548999999999999</v>
-      </c>
-      <c r="I48" s="2">
-        <v>26.737100000000002</v>
-      </c>
-      <c r="J48" s="2">
-        <v>21.767600000000002</v>
-      </c>
-      <c r="K48" s="6">
-        <v>-6.4481000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="14">
-        <v>2</v>
-      </c>
-      <c r="C49" s="14">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>7.2644000000000002</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="14">
-        <v>2</v>
-      </c>
-      <c r="C50" s="14">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2.6446000000000001</v>
-      </c>
-      <c r="E50" s="2">
-        <v>12.1084</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="14">
-        <v>1</v>
-      </c>
-      <c r="C51" s="14">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>10.3428</v>
-      </c>
-      <c r="E51" s="2">
-        <v>65.1053</v>
-      </c>
-      <c r="F51" s="2">
-        <v>4.3E-3</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="14">
-        <v>1</v>
-      </c>
-      <c r="C52" s="14">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="14">
-        <v>1</v>
-      </c>
-      <c r="C53" s="14">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>51.786999999999999</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="14">
-        <v>1</v>
-      </c>
-      <c r="C54" s="14">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>7.6904000000000003</v>
-      </c>
-      <c r="E54" s="2">
-        <v>36.140300000000003</v>
-      </c>
-      <c r="F54" s="2">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="14">
-        <v>3</v>
-      </c>
-      <c r="C55" s="14">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="14">
-        <v>3</v>
-      </c>
-      <c r="C56" s="14">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>6.7821999999999996</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="14">
-        <v>1</v>
-      </c>
-      <c r="C57" s="14">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>5.5566000000000004</v>
-      </c>
-      <c r="E57" s="2">
-        <v>17.966799999999999</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="14">
-        <v>2</v>
-      </c>
-      <c r="C58" s="14">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>5.4248000000000003</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="14">
-        <v>1</v>
-      </c>
-      <c r="C59" s="14">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3.6796000000000002</v>
-      </c>
-      <c r="E59" s="2">
-        <v>14.3969</v>
-      </c>
-      <c r="F59" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>16.920999999999999</v>
-      </c>
-      <c r="I59" s="2">
-        <v>57.767000000000003</v>
-      </c>
-      <c r="J59" s="2">
-        <v>44.123800000000003</v>
-      </c>
-      <c r="K59" s="6">
-        <v>-9.5564999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="14">
-        <v>2</v>
-      </c>
-      <c r="C60" s="14">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3.6762999999999999</v>
-      </c>
-      <c r="E60" s="2">
-        <v>17.791599999999999</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1.11E-2</v>
-      </c>
-      <c r="G60" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="H60" s="2">
-        <v>17.117000000000001</v>
-      </c>
-      <c r="I60" s="2">
-        <v>45.031399999999998</v>
-      </c>
-      <c r="J60" s="2">
-        <v>55.1432</v>
-      </c>
-      <c r="K60" s="6">
         <v>-18.7776</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="14">
-        <v>3</v>
-      </c>
-      <c r="C61" s="14">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2.6812</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="H61" s="2">
-        <v>13.265000000000001</v>
-      </c>
-      <c r="I61" s="2">
-        <v>40.527500000000003</v>
-      </c>
-      <c r="J61" s="2">
-        <v>55.014099999999999</v>
-      </c>
-      <c r="K61" s="6">
-        <v>-31.719000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="14">
-        <v>1</v>
-      </c>
-      <c r="C62" s="14">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5.7092999999999998</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>27.966000000000001</v>
-      </c>
-      <c r="I62" s="2">
-        <v>80.301000000000002</v>
-      </c>
-      <c r="J62" s="2">
-        <v>132.77860000000001</v>
-      </c>
-      <c r="K62" s="6">
-        <v>-58.324100000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="14">
-        <v>2</v>
-      </c>
-      <c r="C63" s="21">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7">
-        <v>5.8259999999999996</v>
-      </c>
-      <c r="E63" s="7">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/group property parameter table.xlsx
+++ b/group property parameter table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Imperial College London\School Work\Year 4\Advanced Process Optimisation\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{54E9388B-7918-4662-9941-0F89BA9963D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66547817-72DD-4451-AE98-9530D0F57345}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{54E9388B-7918-4662-9941-0F89BA9963D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{819F8A53-126D-4ECD-9D92-F5C197FEC32A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A3056EDA-ED5C-45D8-90CA-FFBB2EDFAE2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
   <si>
     <t>CH</t>
   </si>
@@ -1016,6 +1016,45 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Tcrit</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Pcrit</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Tbr</t>
+  </si>
+  <si>
+    <t>Tr_e</t>
+  </si>
+  <si>
+    <t>Tr_c</t>
+  </si>
+  <si>
+    <t>Pvpr_e</t>
+  </si>
+  <si>
+    <t>Pvpr_c</t>
+  </si>
+  <si>
+    <t>Pvp_e</t>
+  </si>
+  <si>
+    <t>Pvp_c</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1333,6 +1372,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17F8A52-8600-4165-B276-756AD6606234}">
-  <dimension ref="A1:AU36"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,10 +1706,17 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.7109375" style="1" customWidth="1"/>
     <col min="4" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="1" customWidth="1"/>
+    <col min="20" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1697,8 +1750,50 @@
       <c r="K1" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
@@ -1727,7 +1822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
@@ -1761,110 +1856,86 @@
       <c r="K3" s="10">
         <v>-9.9231999999999996</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="X3" s="19" t="s">
+      <c r="M3" s="23">
         <v>2</v>
       </c>
-      <c r="Y3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="N3" s="21">
+        <f>181.128*LN(M3*E3)</f>
+        <v>219.31148166771416</v>
+      </c>
+      <c r="O3" s="21">
+        <f>204.359*LN(M3*D3)</f>
+        <v>117.69831394319442</v>
+      </c>
+      <c r="P3" s="21">
+        <f>(M3*F3+0.10022)^-2+1.3705</f>
+        <v>52.376334026893659</v>
+      </c>
+      <c r="Q3" s="21">
+        <f>O3/N3</f>
+        <v>0.53667191999333119</v>
+      </c>
+      <c r="R3" s="21">
+        <f>272/N3</f>
+        <v>1.2402451432621111</v>
+      </c>
+      <c r="S3" s="21">
+        <f>316/N3</f>
+        <v>1.4408730340839231</v>
+      </c>
+      <c r="T3" s="21">
+        <f>Q3*LN(P3/1.01325)/(1-Q3)</f>
+        <v>4.569823090631318</v>
+      </c>
+      <c r="U3" s="21">
+        <f>0.4835+0.4605*T3</f>
+        <v>2.5879035332357216</v>
+      </c>
+      <c r="V3" s="21">
+        <f>((T3/U3)-(1+Q3))/((3+Q3)*(1-Q3)^2)</f>
+        <v>0.30184344873010865</v>
+      </c>
+      <c r="W3" s="21">
+        <f>EXP(-($U$3/R3)*(1-R3^2+V3*(3+R3)*(1-R3)^3))</f>
+        <v>3.1901256982109598</v>
+      </c>
+      <c r="X3" s="21">
+        <f>EXP(-($U$3/S3)*(1-S3^2+V3*(3+S3)*(1-S3)^3))</f>
+        <v>8.491627488206797</v>
+      </c>
+      <c r="Y3" s="21">
+        <f>W3*P3</f>
+        <v>167.08708915727459</v>
+      </c>
+      <c r="Z3" s="21">
+        <f>X3*P3</f>
+        <v>444.76031775427117</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1970,7 @@
         <v>-15.7033</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +2005,7 @@
         <v>-29.514299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +2040,7 @@
         <v>-45.787799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>103</v>
       </c>
@@ -2004,7 +2075,7 @@
         <v>-21.790800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>105</v>
       </c>
@@ -2039,7 +2110,7 @@
         <v>-24.8156</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>104</v>
       </c>
@@ -2074,7 +2145,7 @@
         <v>-26.063700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>106</v>
       </c>
@@ -2109,7 +2180,7 @@
         <v>-29.3703</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>107</v>
       </c>
@@ -2144,7 +2215,7 @@
         <v>-30.605699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>108</v>
       </c>
@@ -2179,7 +2250,7 @@
         <v>-25.1081</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2285,7 @@
         <v>-13.1692</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
@@ -2249,7 +2320,7 @@
         <v>-12.728300000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
@@ -2284,7 +2355,7 @@
         <v>-21.067</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>40</v>
       </c>
@@ -6810,15 +6881,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F19637432BAAAA4E8B613AD4CF549CCD" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1a882fa068e99a90637f35d72ee4199">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f35accf0-cd8f-4670-ac72-d44f2085032d" xmlns:ns4="95507c7c-a837-40bb-8a3d-470d6a1609d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9631af341c2920228165fa301a4a4d8" ns3:_="" ns4:_="">
     <xsd:import namespace="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
@@ -7027,6 +7089,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7A9799-6172-49A4-97D3-F54069957490}">
   <ds:schemaRefs>
@@ -7045,14 +7116,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D7543C-C9B4-44F7-8DEB-9613BE2D178C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6297254-0AB4-40C6-917E-17F432F90510}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7069,4 +7132,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D7543C-C9B4-44F7-8DEB-9613BE2D178C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/group property parameter table.xlsx
+++ b/group property parameter table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Imperial College London\School Work\Year 4\Advanced Process Optimisation\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{54E9388B-7918-4662-9941-0F89BA9963D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{819F8A53-126D-4ECD-9D92-F5C197FEC32A}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{54E9388B-7918-4662-9941-0F89BA9963D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DEC40D6-E60C-468B-ABA0-02BB387D6AF8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A3056EDA-ED5C-45D8-90CA-FFBB2EDFAE2C}"/>
+    <workbookView xWindow="15825" yWindow="900" windowWidth="14355" windowHeight="10800" activeTab="1" xr2:uid="{A3056EDA-ED5C-45D8-90CA-FFBB2EDFAE2C}"/>
   </bookViews>
   <sheets>
     <sheet name="CAG needed" sheetId="2" r:id="rId1"/>
@@ -1697,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17F8A52-8600-4165-B276-756AD6606234}">
   <dimension ref="A1:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,15 +3100,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15697D8-31F9-47FC-951E-4A3CA050B990}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6881,6 +6891,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F19637432BAAAA4E8B613AD4CF549CCD" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1a882fa068e99a90637f35d72ee4199">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f35accf0-cd8f-4670-ac72-d44f2085032d" xmlns:ns4="95507c7c-a837-40bb-8a3d-470d6a1609d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9631af341c2920228165fa301a4a4d8" ns3:_="" ns4:_="">
     <xsd:import namespace="f35accf0-cd8f-4670-ac72-d44f2085032d"/>
@@ -7089,15 +7108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7A9799-6172-49A4-97D3-F54069957490}">
   <ds:schemaRefs>
@@ -7116,6 +7126,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D7543C-C9B4-44F7-8DEB-9613BE2D178C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6297254-0AB4-40C6-917E-17F432F90510}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7132,12 +7150,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D7543C-C9B4-44F7-8DEB-9613BE2D178C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>